--- a/data/long_bre/P16-Urba-long_bre.xlsx
+++ b/data/long_bre/P16-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-30,35%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>-34,88%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,65</t>
+          <t>-3,07; 7,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,71; -0,22</t>
+          <t>-17,22; -3,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 4,72</t>
+          <t>-5,11; 5,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 49,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,9; -0,01</t>
+          <t>-14,89; 43,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 32,06</t>
+          <t>-54,01; -12,65</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-25,56; 33,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>-3,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,35%</t>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-6,79%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 5,36</t>
+          <t>-8,55; 4,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 9,12</t>
+          <t>-4,59; 9,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 2,52</t>
+          <t>-10,58; 2,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 10,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 18,55</t>
+          <t>-13,88; 8,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 4,64</t>
+          <t>-8,03; 20,38</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-16,71; 3,77</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>32,55%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16,73%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 4,87</t>
+          <t>-5,97; 5,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 11,53</t>
+          <t>1,13; 12,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 10,38</t>
+          <t>-2,19; 9,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 64,05</t>
+          <t>-22,37; 30,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 54,46</t>
+          <t>4,76; 71,83</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,36; 48,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 13,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 4,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 3,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 81,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 27,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 21,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>45,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>-12,9%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-8,4%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 2,76</t>
+          <t>1,73; 14,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 3,05</t>
+          <t>-9,43; 4,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 6,19</t>
+          <t>-8,11; 4,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 5,93</t>
+          <t>8,42; 95,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 12,08</t>
+          <t>-38,63; 26,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-32,11; 25,77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>-11,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>-10,57%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,34%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 5,48</t>
+          <t>-14,51; 0,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 14,39</t>
+          <t>-14,55; 1,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 8,29</t>
+          <t>-7,77; 6,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 28,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 78,42</t>
+          <t>-23,75; 1,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 44,4</t>
+          <t>-23,84; 3,27</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-12,77; 12,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-13,74</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-11,08</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,63</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-47,59%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-38,36%</t>
+          <t>-7,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-38,39%</t>
+          <t>39,8%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-30,89; -0,14</t>
+          <t>-7,96; 5,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 2,28</t>
+          <t>1,37; 15,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 1,25</t>
+          <t>-3,51; 9,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-75,97; 0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-65,84; 13,27</t>
+          <t>-28,09; 23,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-67,56; 11,47</t>
+          <t>5,05; 83,62</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-13,52; 46,96</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>55,6%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>51,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,12; 37,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,96; 36,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 22,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,18; 128,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,04; 114,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 48,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-8,66</t>
+          <t>-11,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-10,47</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-28,09%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-36,01%</t>
+          <t>-41,52%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>-35,51%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-35,98%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 4,6</t>
+          <t>-32,77; 1,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 3,53</t>
+          <t>-23,07; 2,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 10,07</t>
+          <t>-17,51; 2,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 25,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-66,97; 20,14</t>
+          <t>-74,2; 11,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 50,27</t>
+          <t>-66,22; 11,38</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-67,7; 18,05</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>19,63</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>21,09</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-25,13%</t>
+          <t>47,17%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,15%</t>
+          <t>49,82%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 6,89</t>
+          <t>4,71; 35,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -1,35</t>
+          <t>5,32; 36,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,71</t>
+          <t>-5,16; 22,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 38,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,24; -6,02</t>
+          <t>8,64; 109,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 10,75</t>
+          <t>8,76; 110,86</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 51,13</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-7,98</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-11,5</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>-26,31%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>-37,52%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-4,0%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 5,07</t>
+          <t>-20,98; 4,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,35</t>
+          <t>-29,74; 2,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 3,51</t>
+          <t>-13,61; 10,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 10,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 12,49</t>
+          <t>-55,05; 24,33</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 6,33</t>
+          <t>-68,46; 15,95</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-40,81; 57,34</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 7,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,4; 45,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 36,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-6,62</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>14,27%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-27,33%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-7,38%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 7,02</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-12,14; -2,14</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 1,93</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 40,11</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-42,35; -9,06</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-23,83; 11,62</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 4,26</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 7,1</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 3,39</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 8,28</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 14,41</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 6,18</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-6,34%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>23,78%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 2,74</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 9,76</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 6,55</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-22,92; 12,36</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 49,26</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 31,28</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
